--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Richard_Heywood_Thomson/Thomas_Richard_Heywood_Thomson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Richard_Heywood_Thomson/Thomas_Richard_Heywood_Thomson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Richard Heywood Thomson, ou T. R. H. Thomson, (Londres, 1813-Braddan, 30 juin 1876) est un explorateur et naturaliste britannique.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est chirurgien de marine, fils de Samuel Thomson, banquier à Londres, où il naît, et de Margaret Heywood, originaire de l'île de Man, il épouse Margaret Wilson[1]. Il remonte le Niger en 1841 avec William Allen (en) et Henry Dundas Trotter. Il est membre de la Société ethnologique de Londres et de la Botanical Society of Edimburgh (en), et membre correspondant de la Zoological Society of London[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est chirurgien de marine, fils de Samuel Thomson, banquier à Londres, où il naît, et de Margaret Heywood, originaire de l'île de Man, il épouse Margaret Wilson. Il remonte le Niger en 1841 avec William Allen (en) et Henry Dundas Trotter. Il est membre de la Société ethnologique de Londres et de la Botanical Society of Edimburgh (en), et membre correspondant de la Zoological Society of London.
 Il est le premier à avoir décrit la Talève d'Allen, un oiseau aquatique (1842).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A narrative of the expedition sent by Her Majesty's government to the river Niger, in 1841, under the command of Capt. H. D. Trotter, R.N., 2 vols., avec William Allen, 1848.
 « The Bubis, or Edeeyah of Fernando Po », in The Edinburgh New Philosophical Journal, vol. 44, avril 1848, p. 232-244
